--- a/biology/Zoologie/Jarmilana_pecki/Jarmilana_pecki.xlsx
+++ b/biology/Zoologie/Jarmilana_pecki/Jarmilana_pecki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jarmilana pecki, unique représentant du genre Jarmilana, est une espèce d'opilions laniatores de la famille des Pyramidopidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Belize[1]. Elle se rencontre dans les grottes Mountain Cow Cave et St Herman's Cave.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Belize. Elle se rencontre dans les grottes Mountain Cow Cave et St Herman's Cave.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 2,3 mm et la femelle paratype 2,1 mm[2].
-Le mâle décrit par Cruz-López, Proud et Pérez-González en 2016 mesure 2,50 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 2,3 mm et la femelle paratype 2,1 mm.
+Le mâle décrit par Cruz-López, Proud et Pérez-González en 2016 mesure 2,50 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Stygnomma pecki par Goodnight et Goodnight en 1977. Elle est placée dans le genre Jarmilana par Cruz-López, Proud et Pérez-González en 2016[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Stygnomma pecki par Goodnight et Goodnight en 1977. Elle est placée dans le genre Jarmilana par Cruz-López, Proud et Pérez-González en 2016.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Stewart B. Peck[2].
-Ce genre est nommé en l'honneur de Jarmila Kukalová-Peck[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Stewart B. Peck.
+Ce genre est nommé en l'honneur de Jarmila Kukalová-Peck.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Goodnight &amp; Goodnight, 1977 : « Laniatores (Opiliones) of the Yucatan Peninsula and Belize (British Honduras). » Bulletin of the Association for Mexican Cave Studies, vol. 30, p. 139–166.
 Cruz-López, Proud &amp; Pérez-González, 2016 : « When troglomorphism dupes taxonomists: morphology and molecules reveal the first pyramidopid harvestman (Arachnida, Opiliones, Pyramidopidae) from the New World. » Zoological Journal of the Linnean Society, vol. 177, p. 602–620.</t>
